--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naviii\Documents\UiPath\BELtd_HDFC_Kalyan\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naviii\Documents\UiPath\BELtd_HDFC_UTR_3.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EDCBF8-D7A4-4A1E-91BE-C42D3D8453F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AB4A31-CDB2-4BA7-8196-E04E4DC3CBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Notes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -157,9 +158,6 @@
     <t>ToEmailAdress</t>
   </si>
   <si>
-    <t>BankNames</t>
-  </si>
-  <si>
     <t>EmailFolder</t>
   </si>
   <si>
@@ -169,15 +167,6 @@
     <t>Biological E Ltd</t>
   </si>
   <si>
-    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_Kalyan\Data\Input\</t>
-  </si>
-  <si>
-    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_Kalyan\Data\Input\SummaryReport.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_Kalyan\Data\Output\</t>
-  </si>
-  <si>
     <t>password protected</t>
   </si>
   <si>
@@ -187,22 +176,145 @@
     <t>[x]{10}[0-9]{4}</t>
   </si>
   <si>
-    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_Kalyan\Data\Attachments\</t>
-  </si>
-  <si>
-    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_Kalyan\Data\Aummaryreportf\</t>
-  </si>
-  <si>
-    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_Kalyan\Data\Anprotecteda\</t>
-  </si>
-  <si>
-    <t>kalyan.gundu@bradsAoe\</t>
-  </si>
-  <si>
-    <t>password proA\</t>
-  </si>
-  <si>
-    <t>BiologicalA\</t>
+    <t>Payment Doc No :[0-9]{5,20}</t>
+  </si>
+  <si>
+    <t>Payment_Doc_Regex</t>
+  </si>
+  <si>
+    <t>(INR) \d+(,\d+)*(\.\d+)</t>
+  </si>
+  <si>
+    <t>Amount_Regex</t>
+  </si>
+  <si>
+    <t>Amount_Regex_2</t>
+  </si>
+  <si>
+    <t>INR [0-9]{2}[,][0-9]{2}[,][0-9]{3}[.][0-9]{2}</t>
+  </si>
+  <si>
+    <t>INR [0-9,]*[0-9]{3}[.][0-9]{2}</t>
+  </si>
+  <si>
+    <t>[0-9,]*[0-9]{3}[.][0-9]{2}\(Rupees</t>
+  </si>
+  <si>
+    <t>Excel,msedge,Acrobat.exe</t>
+  </si>
+  <si>
+    <t>ProcessesToKill</t>
+  </si>
+  <si>
+    <t>SearchString_HDFC_UTR</t>
+  </si>
+  <si>
+    <t>BankFolderName</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>VendorBankAccountsPath</t>
+  </si>
+  <si>
+    <t>[x]{2,13}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>HDFCUTR_MailBody_RegularExpression</t>
+  </si>
+  <si>
+    <t>Vendor Bank accounts</t>
+  </si>
+  <si>
+    <t>VendorBankaccountsSheetName</t>
+  </si>
+  <si>
+    <t>PasswordRemovedAttachmentsPath</t>
+  </si>
+  <si>
+    <t>[0-9]{5,20}</t>
+  </si>
+  <si>
+    <t>[0-9,]*[0-9]{3}[.][0-9]{2}</t>
+  </si>
+  <si>
+    <t>HDFCUTR_PaymentDoc_RegEx_WithText</t>
+  </si>
+  <si>
+    <t>HDFCUTR_PaymentDoc_RegEx_WithoutText</t>
+  </si>
+  <si>
+    <t>HDFCUTR_Amount_RegEx_WithText</t>
+  </si>
+  <si>
+    <t>HDFCUTR_Amount_RegEx_WithoutText</t>
+  </si>
+  <si>
+    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_UTR_3.0\Data\Attachments\</t>
+  </si>
+  <si>
+    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_UTR_3.0\Data\Output\</t>
+  </si>
+  <si>
+    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_UTR_3.0\Data\PasswordRemovedAttachments\</t>
+  </si>
+  <si>
+    <t>Data\Vendor bank accounts.xlsx</t>
+  </si>
+  <si>
+    <t>Bot_Starting_Mail_Subject</t>
+  </si>
+  <si>
+    <t>Bot_Starting_Mail_Body</t>
+  </si>
+  <si>
+    <t>Bot_Ending_Mail_Subject</t>
+  </si>
+  <si>
+    <t>Bot_Ending_Mail_Body</t>
+  </si>
+  <si>
+    <t>HDFC UTR Automation - Completed</t>
+  </si>
+  <si>
+    <t>HDFC UTR Automation - Started</t>
+  </si>
+  <si>
+    <t>Hello Team, 
+This is to notify you that our BOT successfully completed the process for " UTR Automation. 
+Thanks &amp; Regards 
+BE Ltd.</t>
+  </si>
+  <si>
+    <t>Hello Team, 
+This is to notify you that our BOT started the process for "UTR Automation" . 
+Thanks &amp; Regards, 
+BE Ltd.</t>
+  </si>
+  <si>
+    <t>System.DateTime.Now.ToString("MM-dd-yyyy")</t>
+  </si>
+  <si>
+    <t>DateFolderInAttachmentsFolderCreationLogic</t>
+  </si>
+  <si>
+    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_UTR_3.0\Data\Input\SummaryReport-</t>
+  </si>
+  <si>
+    <t>AttachmentNotFound_MailBody</t>
+  </si>
+  <si>
+    <t>AttachmentNotFound_MailSubject</t>
+  </si>
+  <si>
+    <t>Attachment not found for a Mail</t>
+  </si>
+  <si>
+    <t>Hi Team,
+This is to notify you that Bot couldn't found Attachment for a mail.
+Thanks&amp;Regards,
+BE Ltd.</t>
   </si>
 </sst>
 </file>
@@ -240,12 +352,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -261,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -272,6 +390,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -587,16 +706,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="110" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -652,82 +771,193 @@
         <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="60">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1692,10 +1922,16 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{F19909F1-85DB-4E23-B380-9D1AF9BD4AB0}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{F19909F1-85DB-4E23-B380-9D1AF9BD4AB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1707,7 +1943,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3920,4 +4156,72 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3C42D-EC8A-422B-B5E7-659D0F841A7B}">
+  <dimension ref="A6:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771C5424-B070-448E-AB88-FF1AD8FC00C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78C090-5BEE-473E-83AE-3A92272955E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -350,9 +350,6 @@
     <t>MasterData</t>
   </si>
   <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Attachments\MasterFile.xlsx</t>
-  </si>
-  <si>
     <t>HDFC UTR Process Stopped Execution</t>
   </si>
   <si>
@@ -544,6 +541,15 @@
   <si>
     <t>Ex: C:\Users\Username\Documents\UiPath\BELtd_HDFC_UTR\Data\Attachments\08-02-2022\AB012345678901.pdf
 Returns-   AB012345678901.pdf</t>
+  </si>
+  <si>
+    <t>ValidatedPDFsSavingPath</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Desktop\MasterFile.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Desktop\HDFC\</t>
   </si>
 </sst>
 </file>
@@ -937,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1005"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -993,7 +999,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -1005,195 +1011,206 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="4" t="s">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
-      <c r="A18" s="4" t="s">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
         <v>151</v>
       </c>
-      <c r="B18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+        <v>156</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:2"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2"/>
+    <row r="43" spans="1:2"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2151,10 +2168,13 @@
     <row r="1003" ht="14.25" customHeight="1"/>
     <row r="1004" ht="14.25" customHeight="1"/>
     <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
+    <row r="1008" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{A27B5D61-2A92-41A1-B51B-DBDB93A74F66}"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{A27B5D61-2A92-41A1-B51B-DBDB93A74F66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2366,7 +2386,7 @@
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2477,7 +2497,7 @@
         <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2486,7 +2506,7 @@
         <v>71</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
@@ -2494,7 +2514,7 @@
         <v>70</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
@@ -2502,7 +2522,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
@@ -2510,7 +2530,7 @@
         <v>72</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2519,7 +2539,7 @@
         <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
@@ -2527,7 +2547,7 @@
         <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
@@ -2535,137 +2555,137 @@
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="67" spans="1:2" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="70" spans="1:2" ht="14.25" customHeight="1">
       <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="73" spans="1:2" ht="14.25" customHeight="1">
       <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.25" customHeight="1">
@@ -2673,18 +2693,18 @@
     </row>
     <row r="76" spans="1:2" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" customHeight="1"/>

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78C090-5BEE-473E-83AE-3A92272955E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BEFBBD-50F4-48DF-A473-BDEEF9119592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -428,9 +428,6 @@
     <t>&lt;p&gt;Hello Team,&lt;/p&gt;&lt;p&gt;This is to notify you that our BOT HDFC UTR Process failed to load config file. Hence stopping the BOT.&lt;/p&gt;&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;&lt;p&gt;BE Ltd&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Biological E Ltd</t>
-  </si>
-  <si>
     <t>VendorPaymentFileNotFound_MailBody</t>
   </si>
   <si>
@@ -494,9 +491,6 @@
 &lt;p&gt;BE Ltd.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Mail_Sender_SearchString_HDFC_UTR_backup</t>
-  </si>
-  <si>
     <t>Last4DigitsNotFoundMailsSavingPath</t>
   </si>
   <si>
@@ -546,10 +540,22 @@
     <t>ValidatedPDFsSavingPath</t>
   </si>
   <si>
-    <t>C:\Users\BRADSOL\Desktop\MasterFile.xlsx</t>
-  </si>
-  <si>
     <t>C:\Users\BRADSOL\Desktop\HDFC\</t>
+  </si>
+  <si>
+    <t>BE LTD Test - Kalyan</t>
+  </si>
+  <si>
+    <t>Mail_Sender_SearchString_HDFC_UTR_Testing</t>
+  </si>
+  <si>
+    <t>EmailsFolder_Testing</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Desktop\Vendor Payaments MasterFile.xlsx</t>
+  </si>
+  <si>
+    <t>Inbox</t>
   </si>
 </sst>
 </file>
@@ -945,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -999,7 +1005,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -1012,10 +1018,10 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1026,7 +1032,7 @@
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1081,18 +1087,18 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -1108,7 +1114,7 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -1119,10 +1125,10 @@
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1169,13 +1175,13 @@
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2174,7 +2180,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{A27B5D61-2A92-41A1-B51B-DBDB93A74F66}"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{BE3800E5-4AA0-48DE-8F2D-931BEB786182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2183,9 +2189,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1019"/>
+  <dimension ref="A1:Z1020"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2386,360 +2394,369 @@
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B29" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
+    <row r="30" spans="1:3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B32" s="5"/>
-    </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>122</v>
+      <c r="B45" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="49" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" t="s">
-        <v>124</v>
-      </c>
-    </row>
+      <c r="B48" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A51" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A52" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="55" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A57" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
+      <c r="B57" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A60" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A61" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
+      <c r="B60" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" t="s">
-        <v>107</v>
-      </c>
-    </row>
+      <c r="B63" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="67" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
+      <c r="B66" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A69" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="70" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
+      <c r="B69" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A73" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A75" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B75" s="8"/>
+      <c r="B75" s="8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="76" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A76" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>154</v>
-      </c>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="79" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A79" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" t="s">
-        <v>99</v>
-      </c>
-    </row>
+    </row>
+    <row r="79" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
       <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A81" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B81" s="7">
         <v>587</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="82" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="83" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="88" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="89" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="90" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="91" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="92" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="93" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="94" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="95" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="96" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="97" ht="14.25" customHeight="1"/>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
@@ -3663,12 +3680,13 @@
     <row r="1017" ht="14.25" customHeight="1"/>
     <row r="1018" ht="14.25" customHeight="1"/>
     <row r="1019" ht="14.25" customHeight="1"/>
+    <row r="1020" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{F19909F1-85DB-4E23-B380-9D1AF9BD4AB0}"/>
-    <hyperlink ref="B31" r:id="rId2" xr:uid="{E8EB690E-788E-469D-948B-38D2F80252DF}"/>
-    <hyperlink ref="B34" r:id="rId3" xr:uid="{D578C2D8-D83E-4A95-AC4B-85AD1BF7983A}"/>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{F19909F1-85DB-4E23-B380-9D1AF9BD4AB0}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{E8EB690E-788E-469D-948B-38D2F80252DF}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{D578C2D8-D83E-4A95-AC4B-85AD1BF7983A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naviii\Documents\UiPath\BELtd_HDFC_UTR_3.0\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AB4A31-CDB2-4BA7-8196-E04E4DC3CBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B881953C-E4C1-45B4-BC82-EC238A8ED58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -143,178 +143,410 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>BE_LTD Dispatcher Process</t>
-  </si>
-  <si>
-    <t>AttachmentSavingPath</t>
-  </si>
-  <si>
-    <t>SummaryReportFilePath</t>
-  </si>
-  <si>
-    <t>UnprotectedAttachmentsPath</t>
-  </si>
-  <si>
-    <t>ToEmailAdress</t>
-  </si>
-  <si>
-    <t>EmailFolder</t>
-  </si>
-  <si>
     <t>kalyan.gundu@bradsol.com</t>
   </si>
   <si>
-    <t>Biological E Ltd</t>
+    <t>HDFC_UTR_RegEx</t>
+  </si>
+  <si>
+    <t>[x]{10}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>Payment Doc No :[0-9]{5,20}</t>
+  </si>
+  <si>
+    <t>Payment_Doc_Regex</t>
+  </si>
+  <si>
+    <t>(INR) \d+(,\d+)*(\.\d+)</t>
+  </si>
+  <si>
+    <t>Amount_Regex</t>
+  </si>
+  <si>
+    <t>Amount_Regex_2</t>
+  </si>
+  <si>
+    <t>INR [0-9]{2}[,][0-9]{2}[,][0-9]{3}[.][0-9]{2}</t>
+  </si>
+  <si>
+    <t>INR [0-9,]*[0-9]{3}[.][0-9]{2}</t>
+  </si>
+  <si>
+    <t>[0-9,]*[0-9]{3}[.][0-9]{2}\(Rupees</t>
+  </si>
+  <si>
+    <t>Excel,msedge,Acrobat.exe</t>
+  </si>
+  <si>
+    <t>ProcessesToKill</t>
+  </si>
+  <si>
+    <t>VendorBankAccountsPath</t>
+  </si>
+  <si>
+    <t>[x]{2,13}[0-9]{4}</t>
+  </si>
+  <si>
+    <t>HDFCUTR_MailBody_RegularExpression</t>
+  </si>
+  <si>
+    <t>Vendor Bank accounts</t>
+  </si>
+  <si>
+    <t>VendorBankaccountsSheetName</t>
+  </si>
+  <si>
+    <t>[0-9]{5,20}</t>
+  </si>
+  <si>
+    <t>[0-9,]*[0-9]{3}[.][0-9]{2}</t>
+  </si>
+  <si>
+    <t>HDFCUTR_PaymentDoc_RegEx_WithText</t>
+  </si>
+  <si>
+    <t>HDFCUTR_PaymentDoc_RegEx_WithoutText</t>
+  </si>
+  <si>
+    <t>HDFCUTR_Amount_RegEx_WithText</t>
+  </si>
+  <si>
+    <t>HDFCUTR_Amount_RegEx_WithoutText</t>
+  </si>
+  <si>
+    <t>Data\Vendor bank accounts.xlsx</t>
+  </si>
+  <si>
+    <t>Bot_Starting_Mail_Subject</t>
+  </si>
+  <si>
+    <t>Bot_Starting_Mail_Body</t>
+  </si>
+  <si>
+    <t>Bot_Ending_Mail_Subject</t>
+  </si>
+  <si>
+    <t>Bot_Ending_Mail_Body</t>
+  </si>
+  <si>
+    <t>HDFC UTR Automation - Completed</t>
+  </si>
+  <si>
+    <t>HDFC UTR Automation - Started</t>
+  </si>
+  <si>
+    <t>AttachmentNotFound_MailBody</t>
+  </si>
+  <si>
+    <t>AttachmentNotFound_MailSubject</t>
+  </si>
+  <si>
+    <t>NoUnreadMailsFound_MailBody</t>
+  </si>
+  <si>
+    <t>NoUnreadMailsFound_MailSubject</t>
+  </si>
+  <si>
+    <t>MM-dd-yyyy</t>
+  </si>
+  <si>
+    <t>NoPDFFoundInTheEmail_MailSubject</t>
+  </si>
+  <si>
+    <t>NoPDFFoundInTheEmail_MailBody</t>
+  </si>
+  <si>
+    <t>SendMailEnvironment</t>
+  </si>
+  <si>
+    <t>OUTLOOK</t>
+  </si>
+  <si>
+    <t>https://outlook.office.com/mail/</t>
+  </si>
+  <si>
+    <t>SendMailExchangeDomain</t>
+  </si>
+  <si>
+    <t>SendMailToAddress</t>
+  </si>
+  <si>
+    <t>SendMailToCCAddress</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT started the process for "HDFC UTR Automation" . &lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards, &lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Attachments\</t>
+  </si>
+  <si>
+    <t>DateFormat</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Input\SummaryReport-</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\PasswordRemovedAttachments\</t>
+  </si>
+  <si>
+    <t>SummaryReportFileCreationPath</t>
+  </si>
+  <si>
+    <t>SummaryReportFileSavingPath</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Output\SummaryReport-</t>
+  </si>
+  <si>
+    <t>AttachmentSavingFolderPath</t>
+  </si>
+  <si>
+    <t>PasswordRemovedAttachmentsSavingFolderPath</t>
+  </si>
+  <si>
+    <t>EmailsFolder</t>
+  </si>
+  <si>
+    <t>RetryCount</t>
+  </si>
+  <si>
+    <t>Mail_Sender_SearchString_HDFC_UTR</t>
+  </si>
+  <si>
+    <t>Enetadvicemailing@hdfcbank.net</t>
+  </si>
+  <si>
+    <t>BE Ltd- HDFC UTR Process</t>
+  </si>
+  <si>
+    <t>SMTPServer</t>
+  </si>
+  <si>
+    <t>smtp.gmail.com</t>
+  </si>
+  <si>
+    <t>SMTPPortNumber</t>
+  </si>
+  <si>
+    <t>Vendor_Payments</t>
+  </si>
+  <si>
+    <t>MasterFilePath</t>
+  </si>
+  <si>
+    <t>VendorPaymentSheetName</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>MasterSheetName</t>
+  </si>
+  <si>
+    <t>MasterData</t>
+  </si>
+  <si>
+    <t>HDFC UTR Process Stopped Execution</t>
+  </si>
+  <si>
+    <t>ConfigLoadFail_MailSubject</t>
+  </si>
+  <si>
+    <t>ConfigLoadFail_MailBody</t>
+  </si>
+  <si>
+    <t>InitializationFailure_MailSubject</t>
+  </si>
+  <si>
+    <t>InitializationFailure_MailBody</t>
+  </si>
+  <si>
+    <t>GetTransactionData_MailSubject</t>
+  </si>
+  <si>
+    <t>GetTransactionData_MailBody</t>
+  </si>
+  <si>
+    <t>GetMailsException_MailSubject</t>
+  </si>
+  <si>
+    <t>GetMailsException_MailBody</t>
+  </si>
+  <si>
+    <t>OpenExcelException_MailSubject</t>
+  </si>
+  <si>
+    <t>OpenExcelException_MailBody</t>
+  </si>
+  <si>
+    <t>MovingFilesException_MailSubject</t>
+  </si>
+  <si>
+    <t>MovingFilesException_MailBody</t>
+  </si>
+  <si>
+    <t>VendorPaymentFileNotFound_MailSubject</t>
+  </si>
+  <si>
+    <t>HDFC UTR Process - Vendor Payment file not found for current Date</t>
+  </si>
+  <si>
+    <t>Unread Emails not found for HDFC UTR Process</t>
+  </si>
+  <si>
+    <t>Attachments not found for HDFC UTR Process</t>
+  </si>
+  <si>
+    <t>PDF Not Found for HDFC UTR Process</t>
+  </si>
+  <si>
+    <t>LastFourDigitsNotFound_MailSubject</t>
+  </si>
+  <si>
+    <t>HDFC UTR Process - last 4 digits of Account number not found for attached mails</t>
+  </si>
+  <si>
+    <t>LastFourDigitsNotFound_MailBody</t>
+  </si>
+  <si>
+    <t>SummaryReportFileSheetName</t>
+  </si>
+  <si>
+    <t>MailSubjectVendorPaymentsFileName</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT successfully completed the process for HDFC UTR Automation. &lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards &lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team,&lt;/p&gt;&lt;p&gt;This is to notify you that our BOT HDFC UTR Process failed to load config file. Hence stopping the BOT.&lt;/p&gt;&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;&lt;p&gt;BE Ltd&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>VendorPaymentFileNotFound_MailBody</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t find any unread emails for the process of "HDFC UTR Automation ”.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t find Current Date Vendor Payments file for the process of " HDFC UTR Automation”.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team,&lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t Move Files. Hence stopping the BOT.&lt;/p&gt;
+&lt;p&gt;Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t find any attachments for the process of " HDFC UTR Automation”.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT couldn’t find any attachments for the process of " (Bank Name) UTR Automation”.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards &lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team,&lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process has failed to initialize the process. Hence stopping the BOT.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team,&lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process has failed to get transaction data. Hence stopping the BOT.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team,&lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t open outlook. Hence stopping the BOT.&lt;/p&gt;
+&lt;p&gt;Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team,&lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t open Excel. Hence stopping the BOT.&lt;/p&gt;
+&lt;p&gt;Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT couldn’t find last 4 digits of account in body of attached mails for the process of " HDFC UTR Automation”. Please find attached emails.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Last4DigitsNotFoundMailsSavingPath</t>
+  </si>
+  <si>
+    <t>AttachmentNotFoundMailsSavingPath</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Temp\Last4DigitsNotFoundMails</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Temp\AttachmentNotFoundMails</t>
+  </si>
+  <si>
+    <t>Date Folder is created in this folder where Vendor Payment File and all HDFC UTR PDFs are saved</t>
+  </si>
+  <si>
+    <t>Mail_Body_SearchString_HDFC_UTR</t>
   </si>
   <si>
     <t>password protected</t>
   </si>
   <si>
-    <t>HDFC_UTR_RegEx</t>
-  </si>
-  <si>
-    <t>[x]{10}[0-9]{4}</t>
-  </si>
-  <si>
-    <t>Payment Doc No :[0-9]{5,20}</t>
-  </si>
-  <si>
-    <t>Payment_Doc_Regex</t>
-  </si>
-  <si>
-    <t>(INR) \d+(,\d+)*(\.\d+)</t>
-  </si>
-  <si>
-    <t>Amount_Regex</t>
-  </si>
-  <si>
-    <t>Amount_Regex_2</t>
-  </si>
-  <si>
-    <t>INR [0-9]{2}[,][0-9]{2}[,][0-9]{3}[.][0-9]{2}</t>
-  </si>
-  <si>
-    <t>INR [0-9,]*[0-9]{3}[.][0-9]{2}</t>
-  </si>
-  <si>
-    <t>[0-9,]*[0-9]{3}[.][0-9]{2}\(Rupees</t>
-  </si>
-  <si>
-    <t>Excel,msedge,Acrobat.exe</t>
-  </si>
-  <si>
-    <t>ProcessesToKill</t>
-  </si>
-  <si>
-    <t>SearchString_HDFC_UTR</t>
-  </si>
-  <si>
-    <t>BankFolderName</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>VendorBankAccountsPath</t>
-  </si>
-  <si>
-    <t>[x]{2,13}[0-9]{4}</t>
-  </si>
-  <si>
-    <t>HDFCUTR_MailBody_RegularExpression</t>
-  </si>
-  <si>
-    <t>Vendor Bank accounts</t>
-  </si>
-  <si>
-    <t>VendorBankaccountsSheetName</t>
-  </si>
-  <si>
-    <t>PasswordRemovedAttachmentsPath</t>
-  </si>
-  <si>
-    <t>[0-9]{5,20}</t>
-  </si>
-  <si>
-    <t>[0-9,]*[0-9]{3}[.][0-9]{2}</t>
-  </si>
-  <si>
-    <t>HDFCUTR_PaymentDoc_RegEx_WithText</t>
-  </si>
-  <si>
-    <t>HDFCUTR_PaymentDoc_RegEx_WithoutText</t>
-  </si>
-  <si>
-    <t>HDFCUTR_Amount_RegEx_WithText</t>
-  </si>
-  <si>
-    <t>HDFCUTR_Amount_RegEx_WithoutText</t>
-  </si>
-  <si>
-    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_UTR_3.0\Data\Attachments\</t>
-  </si>
-  <si>
-    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_UTR_3.0\Data\Output\</t>
-  </si>
-  <si>
-    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_UTR_3.0\Data\PasswordRemovedAttachments\</t>
-  </si>
-  <si>
-    <t>Data\Vendor bank accounts.xlsx</t>
-  </si>
-  <si>
-    <t>Bot_Starting_Mail_Subject</t>
-  </si>
-  <si>
-    <t>Bot_Starting_Mail_Body</t>
-  </si>
-  <si>
-    <t>Bot_Ending_Mail_Subject</t>
-  </si>
-  <si>
-    <t>Bot_Ending_Mail_Body</t>
-  </si>
-  <si>
-    <t>HDFC UTR Automation - Completed</t>
-  </si>
-  <si>
-    <t>HDFC UTR Automation - Started</t>
-  </si>
-  <si>
-    <t>Hello Team, 
-This is to notify you that our BOT successfully completed the process for " UTR Automation. 
-Thanks &amp; Regards 
-BE Ltd.</t>
-  </si>
-  <si>
-    <t>Hello Team, 
-This is to notify you that our BOT started the process for "UTR Automation" . 
-Thanks &amp; Regards, 
-BE Ltd.</t>
-  </si>
-  <si>
-    <t>System.DateTime.Now.ToString("MM-dd-yyyy")</t>
-  </si>
-  <si>
-    <t>DateFolderInAttachmentsFolderCreationLogic</t>
-  </si>
-  <si>
-    <t>C:\Users\naviii\Documents\UiPath\BELtd_HDFC_UTR_3.0\Data\Input\SummaryReport-</t>
-  </si>
-  <si>
-    <t>AttachmentNotFound_MailBody</t>
-  </si>
-  <si>
-    <t>AttachmentNotFound_MailSubject</t>
-  </si>
-  <si>
-    <t>Attachment not found for a Mail</t>
-  </si>
-  <si>
-    <t>Hi Team,
-This is to notify you that Bot couldn't found Attachment for a mail.
-Thanks&amp;Regards,
-BE Ltd.</t>
+    <t>AttachmentNotFoundMailsAsAttachment_MailSubject</t>
+  </si>
+  <si>
+    <t>AttachmentNotFoundMailsAsAttachment_MailBody</t>
+  </si>
+  <si>
+    <t>HDFC UTR Process - Attachments not found for attached mails</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT couldn’t find attachments for attached mails for the process of " HDFC UTR Automation”. Please find attached emails.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[a-zA-Z0-9]*.pdf</t>
+  </si>
+  <si>
+    <t>PDFFileNameFindingRegEx</t>
+  </si>
+  <si>
+    <t>Ex: C:\Users\Username\Documents\UiPath\BELtd_HDFC_UTR\Data\Attachments\08-02-2022\AB012345678901.pdf
+Returns-   AB012345678901.pdf</t>
+  </si>
+  <si>
+    <t>ValidatedPDFsSavingPath</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Desktop\HDFC\</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Desktop\Vendor Payaments MasterFile.xlsx</t>
+  </si>
+  <si>
+    <t>Inbox</t>
   </si>
 </sst>
 </file>
@@ -332,6 +564,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -350,20 +583,15 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -379,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -390,7 +618,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -706,17 +940,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="127.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="3" max="3" width="104" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -754,226 +988,221 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="30">
-      <c r="A3" t="s">
-        <v>20</v>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
+      <c r="B13" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+      <c r="A14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+        <v>143</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="60">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="60">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:2" ht="60">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:2"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2"/>
+    <row r="43" spans="1:2"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1928,10 +2157,16 @@
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
     <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
+    <row r="1008" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{F19909F1-85DB-4E23-B380-9D1AF9BD4AB0}"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{BE3800E5-4AA0-48DE-8F2D-931BEB786182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1940,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z1020"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2125,84 +2360,384 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="65" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="68" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="71" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="74" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="80" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="7">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="83" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="88" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="89" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="90" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="91" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="92" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="93" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="94" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="95" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="96" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="97" ht="14.25" customHeight="1"/>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
@@ -3095,8 +3630,45 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
+    <row r="1008" ht="14.25" customHeight="1"/>
+    <row r="1009" ht="14.25" customHeight="1"/>
+    <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
+    <row r="1012" ht="14.25" customHeight="1"/>
+    <row r="1013" ht="14.25" customHeight="1"/>
+    <row r="1014" ht="14.25" customHeight="1"/>
+    <row r="1015" ht="14.25" customHeight="1"/>
+    <row r="1016" ht="14.25" customHeight="1"/>
+    <row r="1017" ht="14.25" customHeight="1"/>
+    <row r="1018" ht="14.25" customHeight="1"/>
+    <row r="1019" ht="14.25" customHeight="1"/>
+    <row r="1020" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{F19909F1-85DB-4E23-B380-9D1AF9BD4AB0}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{E8EB690E-788E-469D-948B-38D2F80252DF}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{D578C2D8-D83E-4A95-AC4B-85AD1BF7983A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4175,50 +4747,50 @@
   <sheetData>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
